--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H2">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I2">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J2">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>6233.507556280771</v>
+        <v>7443.758449770832</v>
       </c>
       <c r="R2">
-        <v>6233.507556280771</v>
+        <v>66993.8260479375</v>
       </c>
       <c r="S2">
-        <v>0.2411731193755347</v>
+        <v>0.2466857003107477</v>
       </c>
       <c r="T2">
-        <v>0.2411731193755347</v>
+        <v>0.2466857003107478</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H3">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I3">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J3">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>7419.242317839251</v>
+        <v>8184.148083979167</v>
       </c>
       <c r="R3">
-        <v>7419.242317839251</v>
+        <v>73657.33275581252</v>
       </c>
       <c r="S3">
-        <v>0.2870489523018827</v>
+        <v>0.2712221675604507</v>
       </c>
       <c r="T3">
-        <v>0.2870489523018827</v>
+        <v>0.2712221675604506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H4">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I4">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J4">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>2710.134717414391</v>
+        <v>3301.316770364583</v>
       </c>
       <c r="R4">
-        <v>2710.134717414391</v>
+        <v>29711.85093328125</v>
       </c>
       <c r="S4">
-        <v>0.1048545522445376</v>
+        <v>0.109405436103327</v>
       </c>
       <c r="T4">
-        <v>0.1048545522445376</v>
+        <v>0.109405436103327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H5">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I5">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J5">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>3528.028285706544</v>
+        <v>4536.327723734375</v>
       </c>
       <c r="R5">
-        <v>3528.028285706544</v>
+        <v>40826.94951360938</v>
       </c>
       <c r="S5">
-        <v>0.1364986854073274</v>
+        <v>0.1503336236552553</v>
       </c>
       <c r="T5">
-        <v>0.1364986854073274</v>
+        <v>0.1503336236552552</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H6">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I6">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J6">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>1604.444417194695</v>
+        <v>1761.206177638447</v>
       </c>
       <c r="R6">
-        <v>1604.444417194695</v>
+        <v>15850.85559874602</v>
       </c>
       <c r="S6">
-        <v>0.06207562298847676</v>
+        <v>0.05836626514066038</v>
       </c>
       <c r="T6">
-        <v>0.06207562298847676</v>
+        <v>0.05836626514066038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H7">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I7">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J7">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>1909.641050274784</v>
+        <v>1936.3836510111</v>
       </c>
       <c r="R7">
-        <v>1909.641050274784</v>
+        <v>17427.4528590999</v>
       </c>
       <c r="S7">
-        <v>0.07388361766214524</v>
+        <v>0.0641716359072159</v>
       </c>
       <c r="T7">
-        <v>0.07388361766214524</v>
+        <v>0.06417163590721589</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H8">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I8">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J8">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>697.5624041427222</v>
+        <v>781.0972816409045</v>
       </c>
       <c r="R8">
-        <v>697.5624041427222</v>
+        <v>7029.87553476814</v>
       </c>
       <c r="S8">
-        <v>0.02698854528485954</v>
+        <v>0.02588551619892233</v>
       </c>
       <c r="T8">
-        <v>0.02698854528485954</v>
+        <v>0.02588551619892233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H9">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I9">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J9">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>908.080279938602</v>
+        <v>1073.303018192309</v>
       </c>
       <c r="R9">
-        <v>908.080279938602</v>
+        <v>9659.727163730779</v>
       </c>
       <c r="S9">
-        <v>0.03513343840187317</v>
+        <v>0.03556919645835099</v>
       </c>
       <c r="T9">
-        <v>0.03513343840187317</v>
+        <v>0.03556919645835098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H10">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I10">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J10">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>47.28696032077547</v>
+        <v>54.72265470615466</v>
       </c>
       <c r="R10">
-        <v>47.28696032077547</v>
+        <v>492.503892355392</v>
       </c>
       <c r="S10">
-        <v>0.001829522724305955</v>
+        <v>0.00181350543413544</v>
       </c>
       <c r="T10">
-        <v>0.001829522724305955</v>
+        <v>0.00181350543413544</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H11">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I11">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J11">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>56.28186280778458</v>
+        <v>60.16561562088535</v>
       </c>
       <c r="R11">
-        <v>56.28186280778458</v>
+        <v>541.4905405879681</v>
       </c>
       <c r="S11">
-        <v>0.002177533642987679</v>
+        <v>0.00199388482635708</v>
       </c>
       <c r="T11">
-        <v>0.002177533642987679</v>
+        <v>0.00199388482635708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H12">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I12">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J12">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>20.55889588474223</v>
+        <v>24.26957012634667</v>
       </c>
       <c r="R12">
-        <v>20.55889588474223</v>
+        <v>218.42613113712</v>
       </c>
       <c r="S12">
-        <v>0.0007954194338698248</v>
+        <v>0.0008042920714391193</v>
       </c>
       <c r="T12">
-        <v>0.0007954194338698248</v>
+        <v>0.0008042920714391193</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H13">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I13">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J13">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>26.76338033611336</v>
+        <v>33.348730662736</v>
       </c>
       <c r="R13">
-        <v>26.76338033611336</v>
+        <v>300.138575964624</v>
       </c>
       <c r="S13">
-        <v>0.001035469655313205</v>
+        <v>0.001105174896999084</v>
       </c>
       <c r="T13">
-        <v>0.001035469655313205</v>
+        <v>0.001105174896999084</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H14">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I14">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J14">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>214.6929126575355</v>
+        <v>312.469676645971</v>
       </c>
       <c r="R14">
-        <v>214.6929126575355</v>
+        <v>2812.22708981374</v>
       </c>
       <c r="S14">
-        <v>0.008306424430538516</v>
+        <v>0.01035522599630531</v>
       </c>
       <c r="T14">
-        <v>0.008306424430538516</v>
+        <v>0.01035522599630532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H15">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I15">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J15">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>255.5316936006626</v>
+        <v>343.5493135194956</v>
       </c>
       <c r="R15">
-        <v>255.5316936006626</v>
+        <v>3091.94382167546</v>
       </c>
       <c r="S15">
-        <v>0.009886468427056049</v>
+        <v>0.01138520326374139</v>
       </c>
       <c r="T15">
-        <v>0.009886468427056049</v>
+        <v>0.01138520326374139</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H16">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I16">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J16">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>93.34178404736895</v>
+        <v>138.5807170802944</v>
       </c>
       <c r="R16">
-        <v>93.34178404736895</v>
+        <v>1247.22645372265</v>
       </c>
       <c r="S16">
-        <v>0.003611374338368977</v>
+        <v>0.004592556498601926</v>
       </c>
       <c r="T16">
-        <v>0.003611374338368977</v>
+        <v>0.004592556498601926</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H17">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I17">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J17">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>121.5114703491975</v>
+        <v>190.4232742854616</v>
       </c>
       <c r="R17">
-        <v>121.5114703491975</v>
+        <v>1713.809468569155</v>
       </c>
       <c r="S17">
-        <v>0.004701253680922591</v>
+        <v>0.0063106156774903</v>
       </c>
       <c r="T17">
-        <v>0.004701253680922591</v>
+        <v>0.0063106156774903</v>
       </c>
     </row>
   </sheetData>
